--- a/시장분석용_정보/시장분석용_4812552000.xlsx
+++ b/시장분석용_정보/시장분석용_4812552000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,49 +160,94 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202001 6088300700</t>
-  </si>
-  <si>
-    <t>202002 6088300700</t>
-  </si>
-  <si>
-    <t>202006 6088300700</t>
-  </si>
-  <si>
-    <t>202007 6088300700</t>
-  </si>
-  <si>
-    <t>202008 6088300700</t>
-  </si>
-  <si>
-    <t>202010 6088300700</t>
-  </si>
-  <si>
-    <t>202012 6088300700</t>
-  </si>
-  <si>
-    <t>202105 6088300700</t>
-  </si>
-  <si>
-    <t>202109 6088300700</t>
-  </si>
-  <si>
-    <t>202201 6088300700</t>
-  </si>
-  <si>
-    <t>202204 6088300700</t>
-  </si>
-  <si>
-    <t>202205 6088300700</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>6088300700 202001</t>
+  </si>
+  <si>
+    <t>6088300700 202002</t>
+  </si>
+  <si>
+    <t>6088300700 202006</t>
+  </si>
+  <si>
+    <t>6088300700 202007</t>
+  </si>
+  <si>
+    <t>6088300700 202008</t>
+  </si>
+  <si>
+    <t>6088300700 202010</t>
+  </si>
+  <si>
+    <t>6088300700 202012</t>
+  </si>
+  <si>
+    <t>6088300700 202105</t>
+  </si>
+  <si>
+    <t>6088300700 202109</t>
+  </si>
+  <si>
+    <t>6088300700 202201</t>
+  </si>
+  <si>
+    <t>6088300700 202204</t>
+  </si>
+  <si>
+    <t>6088300700 202205</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMSMkNCMkOTkkMzgxMzUxIzExIyQxIyQzIyQ3OSQzNjE4MzIjNjEjJDEjJDAjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
   </si>
   <si>
     <t>국립마산병원</t>
   </si>
   <si>
-    <t>경상남도 창원시 마산합포구 가포동 486번지</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMSMkNCMkOTkkMzgxMzUxIzExIyQxIyQzIyQ3OSQzNjE4MzIjNjEjJDEjJDAjJDgz</t>
+    <t>경상남도 창원시 마산합포구 가포로 215 (가포동, 국립마산병원)</t>
   </si>
   <si>
     <t>병원</t>
@@ -515,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,43 +711,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>1294</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>39540877</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>6088300700</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J2">
+        <v>4812552000</v>
+      </c>
+      <c r="K2">
         <v>7753.563636363636</v>
       </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2">
-        <v>4812552000</v>
+      <c r="L2" t="s">
+        <v>78</v>
       </c>
       <c r="M2">
         <v>1448459</v>
@@ -666,7 +849,7 @@
         <v>140695</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -675,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -687,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -696,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -708,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -719,43 +902,133 @@
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>100</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>100</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>100</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>100</v>
+      </c>
+      <c r="BI2">
+        <v>100</v>
+      </c>
+      <c r="BJ2">
+        <v>100</v>
+      </c>
+      <c r="BK2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>22835</v>
+        <v>3064</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>39540877</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>6088300700</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J3">
+        <v>4812552000</v>
+      </c>
+      <c r="K3">
         <v>7753.563636363636</v>
       </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3">
-        <v>4812552000</v>
+      <c r="L3" t="s">
+        <v>78</v>
       </c>
       <c r="M3">
         <v>967607</v>
@@ -767,96 +1040,186 @@
         <v>20710</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>6.44</v>
+      </c>
+      <c r="T3">
+        <v>74.25</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>7.19</v>
+      </c>
+      <c r="W3">
+        <v>12.13</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>2.68</v>
       </c>
-      <c r="R3">
+      <c r="AH3">
         <v>7.19</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>52.95</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>9.119999999999999</v>
       </c>
-      <c r="V3">
+      <c r="AL3">
         <v>6.44</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>9.5</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>12.13</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
         <v>2.74</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>12.82</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>66.58</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>12.13</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>5.74</v>
       </c>
+      <c r="AX3">
+        <v>18.24</v>
+      </c>
+      <c r="AY3">
+        <v>3.76</v>
+      </c>
+      <c r="AZ3">
+        <v>7.19</v>
+      </c>
+      <c r="BA3">
+        <v>17.87</v>
+      </c>
+      <c r="BB3">
+        <v>52.95</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>2.68</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>85.14</v>
+      </c>
+      <c r="BI3">
+        <v>87.87</v>
+      </c>
+      <c r="BJ3">
+        <v>11.1</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>108834</v>
+        <v>14141</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
         <v>202006</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>39540877</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>6088300700</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J4">
+        <v>4812552000</v>
+      </c>
+      <c r="K4">
         <v>7753.563636363636</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4">
-        <v>4812552000</v>
+      <c r="L4" t="s">
+        <v>78</v>
       </c>
       <c r="M4">
         <v>127869</v>
@@ -868,7 +1231,7 @@
         <v>8333</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -877,87 +1240,177 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>40</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
+        <v>36</v>
+      </c>
+      <c r="AA4">
+        <v>24</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>40</v>
+      </c>
+      <c r="AM4">
         <v>60</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
         <v>40</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>36</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>24</v>
       </c>
+      <c r="AX4">
+        <v>40</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>36</v>
+      </c>
+      <c r="BA4">
+        <v>24</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>24</v>
+      </c>
+      <c r="BI4">
+        <v>100</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>130540</v>
+        <v>16919</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
         <v>202007</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>39540877</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6088300700</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J5">
+        <v>4812552000</v>
+      </c>
+      <c r="K5">
         <v>7753.563636363636</v>
       </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5">
-        <v>4812552000</v>
+      <c r="L5" t="s">
+        <v>78</v>
       </c>
       <c r="M5">
         <v>224735</v>
@@ -969,7 +1422,7 @@
         <v>13900</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -981,84 +1434,174 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>40.05</v>
       </c>
       <c r="U5">
+        <v>11.99</v>
+      </c>
+      <c r="V5">
         <v>47.96</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>59.95</v>
+      </c>
+      <c r="AA5">
+        <v>40.05</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>47.96</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>52.04</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>88.01000000000001</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>11.99</v>
       </c>
+      <c r="AX5">
+        <v>47.96</v>
+      </c>
+      <c r="AY5">
+        <v>40.05</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>11.99</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>47.96</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>52.04</v>
+      </c>
+      <c r="BI5">
+        <v>52.04</v>
+      </c>
+      <c r="BJ5">
+        <v>33.3</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>152269</v>
+        <v>19695</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6">
         <v>202008</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>39540877</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>6088300700</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J6">
+        <v>4812552000</v>
+      </c>
+      <c r="K6">
         <v>7753.563636363636</v>
       </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6">
-        <v>4812552000</v>
+      <c r="L6" t="s">
+        <v>78</v>
       </c>
       <c r="M6">
         <v>158511</v>
@@ -1070,7 +1613,7 @@
         <v>14750</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1079,87 +1622,177 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>59.32</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>40.68</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>100</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <v>59.32</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>40.68</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>59.32</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>40.68</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>59.32</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>40.68</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>59.32</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>50</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>195712</v>
+        <v>25273</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7">
         <v>202010</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>39540877</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>6088300700</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J7">
+        <v>4812552000</v>
+      </c>
+      <c r="K7">
         <v>7753.563636363636</v>
       </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7">
-        <v>4812552000</v>
+      <c r="L7" t="s">
+        <v>78</v>
       </c>
       <c r="M7">
         <v>177356</v>
@@ -1171,7 +1804,7 @@
         <v>15900</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1186,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="V7">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>28.3</v>
@@ -1201,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1213,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1224,43 +1857,133 @@
       <c r="AG7">
         <v>0</v>
       </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>71.7</v>
+      </c>
+      <c r="AM7">
+        <v>28.3</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>100</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>71.7</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>28.3</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>71.7</v>
+      </c>
+      <c r="BI7">
+        <v>71.7</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>239263</v>
+        <v>30857</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8">
         <v>202012</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>39540877</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>6088300700</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J8">
+        <v>4812552000</v>
+      </c>
+      <c r="K8">
         <v>7753.563636363636</v>
       </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8">
-        <v>4812552000</v>
+      <c r="L8" t="s">
+        <v>78</v>
       </c>
       <c r="M8">
         <v>562254</v>
@@ -1272,7 +1995,7 @@
         <v>12078</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1281,87 +2004,177 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>44.34</v>
+      </c>
+      <c r="T8">
+        <v>15.73</v>
+      </c>
+      <c r="U8">
+        <v>29.62</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>10.3</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>24.38</v>
+      </c>
+      <c r="Z8">
+        <v>28.61</v>
+      </c>
+      <c r="AA8">
+        <v>47.01</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>19.32</v>
       </c>
-      <c r="T8">
+      <c r="AJ8">
         <v>6.44</v>
       </c>
-      <c r="U8">
+      <c r="AK8">
         <v>13.43</v>
       </c>
-      <c r="V8">
+      <c r="AL8">
         <v>19.6</v>
       </c>
-      <c r="W8">
+      <c r="AM8">
         <v>30.82</v>
       </c>
-      <c r="X8">
+      <c r="AN8">
         <v>10.4</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>19.87</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>53.63</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>10.3</v>
       </c>
-      <c r="AF8">
+      <c r="AV8">
         <v>9.75</v>
       </c>
-      <c r="AG8">
+      <c r="AW8">
         <v>6.44</v>
       </c>
+      <c r="AX8">
+        <v>22.72</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>24.38</v>
+      </c>
+      <c r="BA8">
+        <v>16.74</v>
+      </c>
+      <c r="BB8">
+        <v>36.15</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>16.19</v>
+      </c>
+      <c r="BE8">
+        <v>13.43</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>41.21</v>
+      </c>
+      <c r="BI8">
+        <v>56.95</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>348705</v>
+        <v>44868</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
         <v>202105</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2021</v>
       </c>
-      <c r="E9">
-        <v>39540877</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>6088300700</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J9">
+        <v>4812552000</v>
+      </c>
+      <c r="K9">
         <v>7753.563636363636</v>
       </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9">
-        <v>4812552000</v>
+      <c r="L9" t="s">
+        <v>78</v>
       </c>
       <c r="M9">
         <v>99912</v>
@@ -1373,20 +2186,20 @@
         <v>9500</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>73.68000000000001</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
         <v>0</v>
       </c>
@@ -1394,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>26.32</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>26.32</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="Z9">
         <v>26.32</v>
@@ -1415,54 +2228,144 @@
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>73.68000000000001</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>26.32</v>
+      </c>
+      <c r="AP9">
+        <v>26.32</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="BB9">
+        <v>26.32</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>100</v>
+      </c>
+      <c r="BI9">
+        <v>100</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>437145</v>
+        <v>56154</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
         <v>202109</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2021</v>
       </c>
-      <c r="E10">
-        <v>39540877</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>6088300700</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J10">
+        <v>4812552000</v>
+      </c>
+      <c r="K10">
         <v>7753.563636363636</v>
       </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10">
-        <v>4812552000</v>
+      <c r="L10" t="s">
+        <v>78</v>
       </c>
       <c r="M10">
         <v>82439</v>
@@ -1474,7 +2377,7 @@
         <v>8150</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1483,87 +2386,177 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>38.04</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>61.96</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>61.96</v>
+      </c>
+      <c r="Z10">
         <v>38.04</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>38.04</v>
+      </c>
+      <c r="AM10">
         <v>61.96</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
         <v>38.04</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
         <v>61.96</v>
       </c>
+      <c r="AX10">
+        <v>38.04</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>61.96</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>38.04</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>38.04</v>
+      </c>
+      <c r="BI10">
+        <v>38.04</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>526221</v>
+        <v>67481</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
         <v>202201</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2022</v>
       </c>
-      <c r="E11">
-        <v>39540877</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>6088300700</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J11">
+        <v>4812552000</v>
+      </c>
+      <c r="K11">
         <v>7753.563636363636</v>
       </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11">
-        <v>4812552000</v>
+      <c r="L11" t="s">
+        <v>78</v>
       </c>
       <c r="M11">
         <v>137492</v>
@@ -1575,16 +2568,16 @@
         <v>13300</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>37.59</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1605,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1620,51 +2613,141 @@
         <v>0</v>
       </c>
       <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
         <v>37.59</v>
       </c>
-      <c r="AF11">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>62.41</v>
       </c>
-      <c r="AG11">
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>37.59</v>
+      </c>
+      <c r="AV11">
+        <v>62.41</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>62.41</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>37.59</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>62.41</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>100</v>
+      </c>
+      <c r="BI11">
+        <v>100</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>593177</v>
+        <v>76004</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
         <v>202204</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2022</v>
       </c>
-      <c r="E12">
-        <v>39540877</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>6088300700</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J12">
+        <v>4812552000</v>
+      </c>
+      <c r="K12">
         <v>7753.563636363636</v>
       </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12">
-        <v>4812552000</v>
+      <c r="L12" t="s">
+        <v>78</v>
       </c>
       <c r="M12">
         <v>42571</v>
@@ -1676,7 +2759,7 @@
         <v>2777</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1691,25 +2774,25 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>84.03</v>
       </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>15.97</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
       <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>84.03</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>15.97</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -1718,54 +2801,144 @@
         <v>0</v>
       </c>
       <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>15.97</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>84.03</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>15.97</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>84.03</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>15.97</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>84.03</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>100</v>
+      </c>
+      <c r="BI12">
+        <v>100</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>615580</v>
+        <v>78862</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
         <v>202205</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2022</v>
       </c>
-      <c r="E13">
-        <v>39540877</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>6088300700</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J13">
+        <v>4812552000</v>
+      </c>
+      <c r="K13">
         <v>7753.563636363636</v>
       </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13">
-        <v>4812552000</v>
+      <c r="L13" t="s">
+        <v>78</v>
       </c>
       <c r="M13">
         <v>617909</v>
@@ -1786,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1804,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -1819,16 +2992,106 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG13">
         <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>100</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>100</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>100</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4812552000.xlsx
+++ b/시장분석용_정보/시장분석용_4812552000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>6088300700</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4812552000</v>
@@ -708,7 +612,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>1448459</v>
@@ -720,17 +624,17 @@
         <v>140695</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
@@ -741,29 +645,29 @@
         <v>0</v>
       </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>100</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>100</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -773,64 +677,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>100</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>100</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>3064</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>6088300700</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4812552000</v>
@@ -854,7 +710,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>967607</v>
@@ -866,37 +722,37 @@
         <v>20710</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="R3">
+        <v>52.95</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="U3">
         <v>6.44</v>
       </c>
-      <c r="S3">
-        <v>74.25</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>7.19</v>
-      </c>
       <c r="V3">
+        <v>9.5</v>
+      </c>
+      <c r="W3">
         <v>12.13</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>100</v>
+        <v>2.74</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -905,78 +761,30 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>12.82</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>66.58</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>12.13</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.68</v>
-      </c>
-      <c r="AG3">
-        <v>7.19</v>
-      </c>
-      <c r="AH3">
-        <v>52.95</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="AK3">
-        <v>6.44</v>
-      </c>
-      <c r="AL3">
-        <v>9.5</v>
-      </c>
-      <c r="AM3">
-        <v>12.13</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>2.74</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>12.82</v>
-      </c>
-      <c r="AS3">
-        <v>66.58</v>
-      </c>
-      <c r="AT3">
-        <v>12.13</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
         <v>5.74</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>14141</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202006</v>
@@ -988,10 +796,10 @@
         <v>6088300700</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4812552000</v>
@@ -1000,7 +808,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>127869</v>
@@ -1012,7 +820,7 @@
         <v>8333</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1021,108 +829,60 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+      <c r="V4">
+        <v>60</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>40</v>
+      </c>
+      <c r="AD4">
+        <v>36</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>24</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>40</v>
-      </c>
-      <c r="Y4">
-        <v>36</v>
-      </c>
-      <c r="Z4">
-        <v>24</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>40</v>
-      </c>
-      <c r="AL4">
-        <v>60</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>40</v>
-      </c>
-      <c r="AT4">
-        <v>36</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>16919</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202007</v>
@@ -1134,10 +894,10 @@
         <v>6088300700</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4812552000</v>
@@ -1146,7 +906,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>224735</v>
@@ -1158,7 +918,7 @@
         <v>13900</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1170,105 +930,57 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>40.05</v>
+        <v>0</v>
       </c>
       <c r="T5">
+        <v>47.96</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>52.04</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>11.99</v>
       </c>
-      <c r="U5">
-        <v>47.96</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>59.95</v>
-      </c>
-      <c r="Z5">
-        <v>40.05</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>47.96</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>52.04</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>88.01000000000001</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>11.99</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>19695</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202008</v>
@@ -1280,10 +992,10 @@
         <v>6088300700</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4812552000</v>
@@ -1292,7 +1004,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>158511</v>
@@ -1304,7 +1016,7 @@
         <v>14750</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1313,23 +1025,23 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>59.32</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>40.68</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
@@ -1337,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>59.32</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>40.68</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1357,64 +1069,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>59.32</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>40.68</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>59.32</v>
-      </c>
-      <c r="AS6">
-        <v>40.68</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>25273</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202010</v>
@@ -1426,10 +1090,10 @@
         <v>6088300700</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4812552000</v>
@@ -1438,7 +1102,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>177356</v>
@@ -1450,7 +1114,7 @@
         <v>15900</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1465,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>71.7</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
       </c>
       <c r="V7">
         <v>28.3</v>
@@ -1480,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1492,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1503,64 +1167,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>71.7</v>
-      </c>
-      <c r="AL7">
-        <v>28.3</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>100</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>30857</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202012</v>
@@ -1572,10 +1188,10 @@
         <v>6088300700</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4812552000</v>
@@ -1584,7 +1200,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>562254</v>
@@ -1596,7 +1212,7 @@
         <v>12078</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1605,108 +1221,60 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>44.34</v>
+        <v>19.32</v>
       </c>
       <c r="S8">
-        <v>15.73</v>
+        <v>6.44</v>
       </c>
       <c r="T8">
-        <v>29.62</v>
+        <v>13.43</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="V8">
+        <v>30.82</v>
+      </c>
+      <c r="W8">
+        <v>10.4</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>19.87</v>
+      </c>
+      <c r="AC8">
+        <v>53.63</v>
+      </c>
+      <c r="AD8">
         <v>10.3</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>24.38</v>
-      </c>
-      <c r="Y8">
-        <v>28.61</v>
-      </c>
-      <c r="Z8">
-        <v>47.01</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>19.32</v>
-      </c>
-      <c r="AI8">
         <v>6.44</v>
       </c>
-      <c r="AJ8">
-        <v>13.43</v>
-      </c>
-      <c r="AK8">
-        <v>19.6</v>
-      </c>
-      <c r="AL8">
-        <v>30.82</v>
-      </c>
-      <c r="AM8">
-        <v>10.4</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>19.87</v>
-      </c>
-      <c r="AS8">
-        <v>53.63</v>
-      </c>
-      <c r="AT8">
-        <v>10.3</v>
-      </c>
-      <c r="AU8">
-        <v>9.75</v>
-      </c>
-      <c r="AV8">
-        <v>6.44</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>44868</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202105</v>
@@ -1718,10 +1286,10 @@
         <v>6088300700</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4812552000</v>
@@ -1730,7 +1298,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>99912</v>
@@ -1742,19 +1310,19 @@
         <v>9500</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>73.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1763,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>26.32</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>73.68000000000001</v>
       </c>
       <c r="Y9">
         <v>26.32</v>
@@ -1784,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1795,64 +1363,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>73.68000000000001</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>26.32</v>
-      </c>
-      <c r="AO9">
-        <v>26.32</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>73.68000000000001</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>56154</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202109</v>
@@ -1864,10 +1384,10 @@
         <v>6088300700</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4812552000</v>
@@ -1876,7 +1396,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>82439</v>
@@ -1888,7 +1408,7 @@
         <v>8150</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1897,108 +1417,60 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>38.04</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>61.96</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>38.04</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>61.96</v>
       </c>
-      <c r="Y10">
-        <v>38.04</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>38.04</v>
-      </c>
-      <c r="AL10">
-        <v>61.96</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>38.04</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>61.96</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>67481</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202201</v>
@@ -2010,10 +1482,10 @@
         <v>6088300700</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4812552000</v>
@@ -2022,7 +1494,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>137492</v>
@@ -2034,16 +1506,16 @@
         <v>13300</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>37.59</v>
       </c>
       <c r="R11">
-        <v>37.59</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2064,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2079,72 +1551,24 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>37.59</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>62.41</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>37.59</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>62.41</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>37.59</v>
-      </c>
-      <c r="AU11">
-        <v>62.41</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>76004</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202204</v>
@@ -2156,10 +1580,10 @@
         <v>6088300700</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4812552000</v>
@@ -2168,7 +1592,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>42571</v>
@@ -2180,7 +1604,7 @@
         <v>2777</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2195,102 +1619,54 @@
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>15.97</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>84.03</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>15.97</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>84.03</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>15.97</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>15.97</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>84.03</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>15.97</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>84.03</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>78862</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202205</v>
@@ -2302,10 +1678,10 @@
         <v>6088300700</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4812552000</v>
@@ -2314,7 +1690,7 @@
         <v>7753.563636363636</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>617909</v>
@@ -2335,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>70.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2353,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>70.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2368,63 +1744,15 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>100</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
         <v>0</v>
       </c>
     </row>
